--- a/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>EPZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,136 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F8" s="3">
         <v>5700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9700</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>12000</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>10000</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>600</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -819,13 +832,19 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F12" s="3">
         <v>26600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>40900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>26900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>21800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>27000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>31300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>25600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>28900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>28700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>27300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>24700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>28400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>61800</v>
+      </c>
+      <c r="F17" s="3">
         <v>43700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>56600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>38900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>34000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>38600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>42300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>35000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>37400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>38100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>38500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>33000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>36000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-38000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-50700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-31000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-24300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-38600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-30300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-35000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-37400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-38100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-28500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-33000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-35500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,119 +1243,133 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>400</v>
       </c>
       <c r="O20" s="3">
         <v>400</v>
       </c>
       <c r="P20" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>400</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-35900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-48300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-29100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-22600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-37300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-28900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-33700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-36100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-37200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-27600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-32100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-34600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-23900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-36100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-48500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-29300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-22900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-37500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-29100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-34100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-36500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-37600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-28000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-32500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-35000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
+      <c r="E24" s="3">
+        <v>100</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-36100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-48500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-29300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-22900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-37500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-29100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-34100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-36200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-37600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-28000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-32500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-35000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-36100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-48500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-32300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-22900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-37500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-29100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-34100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-36200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-37600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-28000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-32500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-35000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-400</v>
       </c>
       <c r="O32" s="3">
         <v>-400</v>
       </c>
       <c r="P32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-36100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-48500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-32300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-22900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-37500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-29100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-34100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-36200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-37600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-28000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-32500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-35000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-36100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-48500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-32300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-22900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-37500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-29100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-34100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-36200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-37600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-28000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-32500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-35000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,129 +2138,143 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>179300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>139500</v>
+      </c>
+      <c r="F41" s="3">
         <v>93500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>45900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>144300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>86700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>66300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>67900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>130300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>226700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>219800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>88500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>64400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>77900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>197200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>241600</v>
+      </c>
+      <c r="F42" s="3">
         <v>199400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>285000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>226800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>153600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>114500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>147700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>117600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>49800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>87400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>104500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>146800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>164300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F43" s="3">
         <v>12000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>13300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>13000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>20100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>12300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>12000</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2097,33 +2282,39 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2143,96 +2334,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F45" s="3">
         <v>16100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>12200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>9000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>10000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>8600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>8800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>402400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>399200</v>
+      </c>
+      <c r="F46" s="3">
         <v>320900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>358400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>399300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>272500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>236100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>256900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>285800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>317300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>201700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>220000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>248700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>275000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,75 +2484,87 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F48" s="3">
         <v>11200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>12000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>12500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2000</v>
       </c>
       <c r="I48" s="3">
         <v>2100</v>
       </c>
       <c r="J48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>3300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>3100</v>
       </c>
       <c r="P48" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>24700</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1100</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
       </c>
       <c r="L52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>451600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>424600</v>
+      </c>
+      <c r="F54" s="3">
         <v>334200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>371400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>412700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>275500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>203100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>239300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>260200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>289400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>320500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>205300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>223900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>252400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>11000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2677,152 +2944,170 @@
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F59" s="3">
         <v>24100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>26900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>23800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>33000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>20400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>18200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>17600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>17600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>16200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>12600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>16000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F60" s="3">
         <v>29400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>33900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>31800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>37800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>26700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>29200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>24600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>24700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>23200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>26200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>20500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>21600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>61500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>36100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2834,57 +3119,69 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F62" s="3">
         <v>11000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>11800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>12500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>29300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>29200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>29100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>28900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>29000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>93500</v>
+      </c>
+      <c r="F66" s="3">
         <v>40500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>45700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>44400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>42500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>31300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>33700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>29100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>54000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>52400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>55300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>49400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>50700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,13 +3494,19 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="E70" s="3">
         <v>37400</v>
@@ -3180,10 +3515,10 @@
         <v>37400</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>37400</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>37400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-808000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-757000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-700600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-664500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-616100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-586700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-563800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-526300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-497200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-488100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-451900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-414300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-386300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-353700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-318700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>304200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>293700</v>
+      </c>
+      <c r="F76" s="3">
         <v>256300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>288300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>330900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>233000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>171800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>205600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>231100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>235400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>268200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>150000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>174500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>201700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>233800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-36100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-48500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-32300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-22900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-37500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-29100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-34100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-36200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-37600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-28000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-32500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-35000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,13 +4023,15 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3652,10 +4049,10 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+      <c r="R83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-38200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-41900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-31600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-22600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-35800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-32900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-30300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-30400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-38900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-17900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-33200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-21000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-25200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="F94" s="3">
         <v>86300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-57100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-72500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-38800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>33700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-29600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-67900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>37200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>17100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>41700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>17300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>32800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>123500</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>161600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>81700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1800</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>153000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F102" s="3">
         <v>48600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-98400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>57600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>20400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-62400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-96400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>131300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>24100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-13500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>11900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-23500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>EPZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9700</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>12000</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -777,28 +781,31 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>10000</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
@@ -838,17 +845,20 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E12" s="3">
         <v>25200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>38300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>40900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E17" s="3">
         <v>52700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>61800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>33000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>36000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-51300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-57500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-38000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-50700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-31000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-30300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-35000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-38100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-28500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-35500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,46 +1278,47 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1100</v>
       </c>
       <c r="K20" s="3">
         <v>1100</v>
       </c>
       <c r="L20" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M20" s="3">
         <v>900</v>
       </c>
       <c r="N20" s="3">
+        <v>900</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>400</v>
       </c>
       <c r="P20" s="3">
         <v>400</v>
@@ -1293,60 +1327,66 @@
         <v>400</v>
       </c>
       <c r="R20" s="3">
+        <v>400</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-50100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-55900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-48300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-22600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-37300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-28900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-33700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-36100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-37200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-27600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-32100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-34600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-23900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,11 +1394,11 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1371,8 +1411,8 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-50900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-48500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-37500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-29100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-37600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-28000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-35000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-50900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-48500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-29300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-37500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-29100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-36200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-37600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-28000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-35000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-50900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-48500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-32300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-29100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-36200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-37600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-28000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-35000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,46 +1912,49 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1100</v>
       </c>
       <c r="K32" s="3">
         <v>-1100</v>
       </c>
       <c r="L32" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="M32" s="3">
         <v>-900</v>
       </c>
       <c r="N32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-400</v>
       </c>
       <c r="P32" s="3">
         <v>-400</v>
@@ -1893,60 +1963,66 @@
         <v>-400</v>
       </c>
       <c r="R32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-50900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-56400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-48500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-32300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-29100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-36200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-37600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-28000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-35000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-50900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-56400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-48500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-32300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-29100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-36200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-37600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-28000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-35000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,144 +2226,151 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E41" s="3">
         <v>179300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>139500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>93500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>86700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>66300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>130300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>226700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>219800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>88500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>64400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>77900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>204900</v>
+      </c>
+      <c r="E42" s="3">
         <v>197200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>241600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>199400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>285000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>226800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>153600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>114500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>147700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>117600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>49800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>87400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>104500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>146800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>164300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12000</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2288,19 +2381,22 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1700</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2316,8 +2412,8 @@
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2340,108 +2436,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E45" s="3">
         <v>22600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>354700</v>
+      </c>
+      <c r="E46" s="3">
         <v>402400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>399200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>320900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>358400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>399300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>272500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>236100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>256900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>285800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>317300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>201700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>220000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>248700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>275000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,67 +2595,73 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E48" s="3">
         <v>22500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E49" s="3">
         <v>24700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2566,8 +2677,8 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
         <v>2000</v>
       </c>
       <c r="F52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>900</v>
       </c>
       <c r="I52" s="3">
         <v>900</v>
       </c>
       <c r="J52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
       </c>
       <c r="L52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>700</v>
       </c>
       <c r="O52" s="3">
         <v>700</v>
       </c>
       <c r="P52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q52" s="3">
         <v>600</v>
       </c>
       <c r="R52" s="3">
+        <v>600</v>
+      </c>
+      <c r="S52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>427400</v>
+      </c>
+      <c r="E54" s="3">
         <v>451600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>424600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>334200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>371400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>412700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>275500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>203100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>239300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>260200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>289400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>320500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>205300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>223900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>252400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2950,8 +3084,8 @@
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2959,20 +3093,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -2980,120 +3114,129 @@
       <c r="R58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E59" s="3">
         <v>21300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>17600</v>
       </c>
       <c r="N59" s="3">
         <v>17600</v>
       </c>
       <c r="O59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="P59" s="3">
         <v>16200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E60" s="3">
         <v>27200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>37800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E61" s="3">
         <v>61500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3101,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -3110,7 +3253,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3125,63 +3268,69 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E62" s="3">
         <v>22700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>4500</v>
       </c>
       <c r="K62" s="3">
         <v>4500</v>
       </c>
       <c r="L62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M62" s="3">
         <v>4400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E66" s="3">
         <v>111300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>93500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>40500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>44400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>42500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>50700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3509,7 +3677,7 @@
         <v>36100</v>
       </c>
       <c r="E70" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="F70" s="3">
         <v>37400</v>
@@ -3521,7 +3689,7 @@
         <v>37400</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>37400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-866400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-808000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-757000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-700600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-664500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-616100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-586700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-563800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-526300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-497200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-488100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-451900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-414300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-386300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-353700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-318700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>257200</v>
+      </c>
+      <c r="E76" s="3">
         <v>304200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>293700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>256300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>288300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>330900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>233000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>171800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>205600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>231100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>235400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>268200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>150000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>174500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>201700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>233800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-50900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-56400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-48500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-32300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-29100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-36200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-37600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-28000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-35000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,16 +4223,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -4055,7 +4254,7 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-58300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-38200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-41900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-35800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-32900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-30300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-30400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-38900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-33200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-21000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-25200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -4413,40 +4634,43 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E94" s="3">
         <v>19500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-42000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>86300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-57100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-72500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>33700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-67900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>37200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>17100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>41700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>17300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>32800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E100" s="3">
         <v>78500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>123500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>161600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>81700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>153000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E102" s="3">
         <v>39800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>46000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>48600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-98400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>57600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-62400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-96400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>131300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>24100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>EPZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9700</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>12000</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -784,31 +788,34 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>10000</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
@@ -848,20 +855,23 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E12" s="3">
         <v>26400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>38300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>40900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>31300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>28400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E17" s="3">
         <v>60000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>61800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>33000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-57500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-51300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-57500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-38000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-50700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-31000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-38600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-30300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-35000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-37400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-38100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-33000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-35500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,49 +1312,50 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1100</v>
       </c>
       <c r="L20" s="3">
         <v>1100</v>
       </c>
       <c r="M20" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N20" s="3">
         <v>900</v>
       </c>
       <c r="O20" s="3">
+        <v>900</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>400</v>
       </c>
       <c r="Q20" s="3">
         <v>400</v>
@@ -1330,63 +1364,69 @@
         <v>400</v>
       </c>
       <c r="S20" s="3">
+        <v>400</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-57300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-50100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-55900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-48300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-29100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-22600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-37300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-28900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-33700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-36100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-37200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-32100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-34600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-23900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,11 +1437,11 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1414,8 +1454,8 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-58500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-50900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-48500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-29300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-22900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-29100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-36500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-37600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-32500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-35000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1502,50 +1548,53 @@
       <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-58500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-50900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-48500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-29300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-29100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-36200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-37600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-32500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-35000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-58500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-50900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-56400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-48500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-32300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-29100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-36200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-37600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-32500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-35000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,49 +1982,52 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1100</v>
       </c>
       <c r="L32" s="3">
         <v>-1100</v>
       </c>
       <c r="M32" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="N32" s="3">
         <v>-900</v>
       </c>
       <c r="O32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-400</v>
       </c>
       <c r="Q32" s="3">
         <v>-400</v>
@@ -1966,63 +2036,69 @@
         <v>-400</v>
       </c>
       <c r="S32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-58500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-50900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-56400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-48500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-32300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-29100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-36200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-37600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-32500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-35000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-58500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-50900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-56400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-48500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-32300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-29100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-36200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-37600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-32500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-35000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,153 +2313,160 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E41" s="3">
         <v>117200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>179300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>139500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>93500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>144300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>86700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>130300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>226700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>219800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>88500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>64400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>77900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E42" s="3">
         <v>204900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>197200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>241600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>199400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>285000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>226800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>153600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>147700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>117600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>49800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>87400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>104500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>146800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>164300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12000</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2384,22 +2477,25 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E44" s="3">
         <v>9900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1700</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2415,8 +2511,8 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2439,114 +2535,123 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E45" s="3">
         <v>21000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>311200</v>
+      </c>
+      <c r="E46" s="3">
         <v>354700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>402400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>399200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>320900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>358400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>399300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>272500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>236100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>256900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>285800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>317300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>201700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>220000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>248700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>275000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,73 +2703,79 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E48" s="3">
         <v>21700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E49" s="3">
         <v>49100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>24700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2680,8 +2791,8 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2000</v>
       </c>
       <c r="F52" s="3">
         <v>2000</v>
       </c>
       <c r="G52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>900</v>
       </c>
       <c r="J52" s="3">
         <v>900</v>
       </c>
       <c r="K52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
       </c>
       <c r="M52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>700</v>
       </c>
       <c r="P52" s="3">
         <v>700</v>
       </c>
       <c r="Q52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R52" s="3">
         <v>600</v>
       </c>
       <c r="S52" s="3">
+        <v>600</v>
+      </c>
+      <c r="T52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>381800</v>
+      </c>
+      <c r="E54" s="3">
         <v>427400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>451600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>424600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>334200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>371400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>412700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>275500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>203100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>239300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>260200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>289400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>320500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>205300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>223900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>252400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3087,8 +3221,8 @@
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3096,20 +3230,20 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>600</v>
       </c>
       <c r="R58" s="3">
         <v>600</v>
@@ -3117,129 +3251,138 @@
       <c r="S58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E59" s="3">
         <v>26100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>17600</v>
       </c>
       <c r="O59" s="3">
         <v>17600</v>
       </c>
       <c r="P59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>16200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E60" s="3">
         <v>30700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>37800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E61" s="3">
         <v>81900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>61500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3247,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -3256,7 +3399,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3271,66 +3414,72 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E62" s="3">
         <v>21500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>4500</v>
       </c>
       <c r="L62" s="3">
         <v>4500</v>
       </c>
       <c r="M62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N62" s="3">
         <v>4400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>28900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E66" s="3">
         <v>134000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>111300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>93500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>42500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>50700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3680,7 +3848,7 @@
         <v>36100</v>
       </c>
       <c r="F70" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="G70" s="3">
         <v>37400</v>
@@ -3692,7 +3860,7 @@
         <v>37400</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>37400</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-922500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-866400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-808000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-757000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-700600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-664500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-616100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-586700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-563800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-526300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-497200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-488100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-451900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-414300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-386300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-353700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-318700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E76" s="3">
         <v>257200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>304200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>293700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>256300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>288300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>330900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>233000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>171800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>205600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>231100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>235400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>268200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>150000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>174500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>201700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>233800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-58500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-50900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-56400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-48500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-32300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-29100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-36200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-37600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-32500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-35000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,19 +4422,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -4257,7 +4456,7 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-52400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-58300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-35500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-38200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-41900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-35800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-32900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-30300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-30400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-38900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-33200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-21000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-25200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4625,10 +4846,10 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -4637,40 +4858,43 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>19500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-42000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>86300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-57100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-72500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>33700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-67900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>37200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>17100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>41700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>17300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>32800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>22700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>78500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>123500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>161600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>81700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>153000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-62100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>39800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>46000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>48600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-98400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>57600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-62400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-96400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>131300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>24100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>EPZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,128 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9700</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>12000</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -791,34 +794,37 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>10000</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
@@ -858,23 +864,26 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E12" s="3">
         <v>25700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>38300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>40900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>31300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>25600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>28400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E17" s="3">
         <v>57900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>60000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>61800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>35000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>37400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>38500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>33000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>36000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-54300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-57500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-51300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-57500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-38000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-50700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-31000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-38600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-30300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-35000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-37400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-28500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-33000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-35500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,52 +1345,53 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1100</v>
       </c>
       <c r="M20" s="3">
         <v>1100</v>
       </c>
       <c r="N20" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="O20" s="3">
         <v>900</v>
       </c>
       <c r="P20" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>400</v>
       </c>
       <c r="R20" s="3">
         <v>400</v>
@@ -1367,71 +1400,77 @@
         <v>400</v>
       </c>
       <c r="T20" s="3">
+        <v>400</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-54400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-57300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-50100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-55900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-35900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-48300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-29100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-22600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-37300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-28900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-33700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-36100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-27600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-32100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-34600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-23900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1440,11 +1479,11 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1457,8 +1496,8 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1481,69 +1520,75 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-56100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-58500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-50900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-56300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-48500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-29300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-22900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-29100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-34100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-36500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-28000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-32500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-35000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>100</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>5</v>
@@ -1551,50 +1596,53 @@
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-58500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-50900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-56400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-48500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-29300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-29100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-36200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-28000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-32500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-35000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-56100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-58500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-50900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-56400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-48500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-32300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-29100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-34100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-36200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-28000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-32500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-35000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,52 +2051,55 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1100</v>
       </c>
       <c r="M32" s="3">
         <v>-1100</v>
       </c>
       <c r="N32" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="O32" s="3">
         <v>-900</v>
       </c>
       <c r="P32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-400</v>
       </c>
       <c r="R32" s="3">
         <v>-400</v>
@@ -2039,66 +2108,72 @@
         <v>-400</v>
       </c>
       <c r="T32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-56100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-58500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-50900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-56400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-48500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-32300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-34100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-36200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-28000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-32500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-35000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-56100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-58500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-50900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-56400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-48500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-32300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-34100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-36200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-28000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-32500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-35000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,162 +2399,169 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>168200</v>
+      </c>
+      <c r="E41" s="3">
         <v>93400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>117200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>179300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>139500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>93500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>144300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>66300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>130300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>226700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>219800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>88500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>64400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>77900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>205400</v>
+      </c>
+      <c r="E42" s="3">
         <v>186500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>204900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>197200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>241600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>199400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>285000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>226800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>153600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>147700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>117600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>49800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>87400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>104500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>146800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>164300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12000</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -2480,25 +2572,28 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E44" s="3">
         <v>8200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1700</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2514,8 +2609,8 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2538,120 +2633,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E45" s="3">
         <v>18500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>405100</v>
+      </c>
+      <c r="E46" s="3">
         <v>311200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>354700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>402400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>399200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>320900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>358400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>399300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>272500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>236100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>256900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>285800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>317300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>201700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>220000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>248700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>275000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,79 +2810,85 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E48" s="3">
         <v>20500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E49" s="3">
         <v>48000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>49100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>24700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2794,8 +2904,8 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,55 +3058,58 @@
         <v>2000</v>
       </c>
       <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2000</v>
       </c>
       <c r="G52" s="3">
         <v>2000</v>
       </c>
       <c r="H52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>900</v>
       </c>
       <c r="L52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M52" s="3">
         <v>1000</v>
       </c>
       <c r="N52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>700</v>
       </c>
       <c r="Q52" s="3">
         <v>700</v>
       </c>
       <c r="R52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S52" s="3">
         <v>600</v>
       </c>
       <c r="T52" s="3">
+        <v>600</v>
+      </c>
+      <c r="U52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>473600</v>
+      </c>
+      <c r="E54" s="3">
         <v>381800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>427400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>451600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>424600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>334200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>371400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>412700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>275500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>203100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>239300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>260200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>289400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>320500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>205300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>223900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>252400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,90 +3271,94 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>7400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3233,20 +3366,20 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>600</v>
       </c>
       <c r="S58" s="3">
         <v>600</v>
@@ -3254,138 +3387,147 @@
       <c r="T58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E59" s="3">
         <v>27400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>17600</v>
       </c>
       <c r="P59" s="3">
         <v>17600</v>
       </c>
       <c r="Q59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="R59" s="3">
         <v>16200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E60" s="3">
         <v>34800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>37800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E61" s="3">
         <v>82300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>81900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>61500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3393,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -3402,7 +3544,7 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3417,69 +3559,75 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E62" s="3">
         <v>20300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>4500</v>
       </c>
       <c r="M62" s="3">
         <v>4500</v>
       </c>
       <c r="N62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O62" s="3">
         <v>4400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>28900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>288700</v>
+      </c>
+      <c r="E66" s="3">
         <v>137300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>134000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>111300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>93500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>50700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3851,7 +4018,7 @@
         <v>36100</v>
       </c>
       <c r="G70" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="H70" s="3">
         <v>37400</v>
@@ -3863,7 +4030,7 @@
         <v>37400</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>37400</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-988700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-922500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-866400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-808000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-757000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-700600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-664500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-616100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-586700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-563800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-526300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-497200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-488100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-451900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-414300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-386300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-353700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-318700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E76" s="3">
         <v>208300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>257200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>304200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>293700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>256300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>288300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>330900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>233000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>171800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>205600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>231100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>235400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>268200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>150000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>174500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>201700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>233800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-56100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-58500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-50900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-56400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-48500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-32300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-34100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-36200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-28000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-32500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-35000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,13 +4630,13 @@
         <v>1300</v>
       </c>
       <c r="E83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -4459,7 +4657,7 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-52400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-58300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-35500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-41900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-35800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-32900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-30300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-30400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-33200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-21000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-25200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4849,10 +5069,10 @@
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -4861,40 +5081,43 @@
         <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E94" s="3">
         <v>17700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>19500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-42000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>86300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-57100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-72500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>33700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-67900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>37200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>17100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>41700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>17300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>32800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>147400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>22700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>78500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>123500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>161600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>81700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>153000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-62100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>39800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>46000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>48600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-98400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>57600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-62400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-96400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>131300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>24100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-23500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>EPZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E8" s="3">
         <v>8400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9700</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>12000</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -797,37 +801,40 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>10000</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
@@ -867,26 +874,29 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E10" s="3">
         <v>6600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E12" s="3">
         <v>33700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>38300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>40900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>31300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>25600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>24700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>28400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E17" s="3">
         <v>70500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>35000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>38100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>38500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>33000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>36000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-62100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-54300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-57500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-51300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-57500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-38000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-50700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-31000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-24300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-38600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-30300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-35000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-37400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-38100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-28500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-33000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-35500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,55 +1379,56 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1100</v>
       </c>
       <c r="N20" s="3">
         <v>1100</v>
       </c>
       <c r="O20" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="P20" s="3">
         <v>900</v>
       </c>
       <c r="Q20" s="3">
+        <v>900</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>400</v>
       </c>
       <c r="S20" s="3">
         <v>400</v>
@@ -1403,69 +1437,75 @@
         <v>400</v>
       </c>
       <c r="U20" s="3">
+        <v>400</v>
+      </c>
+      <c r="V20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-64300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-54400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-57300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-50100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-55900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-48300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-29100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-22600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-37300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-28900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-33700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-36100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-37200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-27600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-32100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-34600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-23900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1473,7 +1513,7 @@
         <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1482,11 +1522,11 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1499,8 +1539,8 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-66100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-58500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-50900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-56300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-48500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-29300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-37500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-34100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-37600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-28000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-32500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-35000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-66200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-58500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-50900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-48500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-29300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-37500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-29100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-34100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-37600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-28000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-32500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-35000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-66200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-58500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-50900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-56400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-48500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-32300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-37500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-29100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-34100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-37600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-28000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-32500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-35000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,55 +2121,58 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E32" s="3">
         <v>3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1100</v>
       </c>
       <c r="N32" s="3">
         <v>-1100</v>
       </c>
       <c r="O32" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="P32" s="3">
         <v>-900</v>
       </c>
       <c r="Q32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-400</v>
       </c>
       <c r="S32" s="3">
         <v>-400</v>
@@ -2111,69 +2181,75 @@
         <v>-400</v>
       </c>
       <c r="U32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-66200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-56100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-58500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-50900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-56400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-48500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-32300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-37500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-29100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-34100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-37600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-28000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-32500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-35000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-66200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-56100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-58500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-50900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-56400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-48500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-32300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-37500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-29100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-34100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-37600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-28000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-32500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-35000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,171 +2486,178 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E41" s="3">
         <v>168200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>93400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>117200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>179300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>139500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>93500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>45900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>86700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>66300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>130300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>226700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>219800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>88500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>64400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>77900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>225200</v>
+      </c>
+      <c r="E42" s="3">
         <v>205400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>186500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>204900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>197200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>241600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>199400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>285000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>226800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>153600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>114500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>147700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>117600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>49800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>87400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>104500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>146800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>164300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12000</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
@@ -2575,28 +2668,31 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E44" s="3">
         <v>10500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1700</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2612,8 +2708,8 @@
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2636,126 +2732,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E45" s="3">
         <v>17900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>340400</v>
+      </c>
+      <c r="E46" s="3">
         <v>405100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>311200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>354700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>402400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>399200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>320900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>358400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>399300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>272500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>236100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>256900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>285800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>317300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>201700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>220000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>248700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>275000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,85 +2918,91 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E48" s="3">
         <v>19500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E49" s="3">
         <v>47000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>48000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>49100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>24700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2907,8 +3018,8 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3061,55 +3181,58 @@
         <v>2000</v>
       </c>
       <c r="F52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2000</v>
       </c>
       <c r="H52" s="3">
         <v>2000</v>
       </c>
       <c r="I52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>900</v>
       </c>
       <c r="L52" s="3">
         <v>900</v>
       </c>
       <c r="M52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N52" s="3">
         <v>1000</v>
       </c>
       <c r="O52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>700</v>
       </c>
       <c r="R52" s="3">
         <v>700</v>
       </c>
       <c r="S52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T52" s="3">
         <v>600</v>
       </c>
       <c r="U52" s="3">
+        <v>600</v>
+      </c>
+      <c r="V52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>406700</v>
+      </c>
+      <c r="E54" s="3">
         <v>473600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>381800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>427400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>451600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>424600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>334200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>371400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>412700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>275500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>203100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>239300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>260200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>289400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>320500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>205300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>223900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>252400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3357,11 +3491,11 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3369,20 +3503,20 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>600</v>
       </c>
       <c r="T58" s="3">
         <v>600</v>
@@ -3390,147 +3524,156 @@
       <c r="U58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E59" s="3">
         <v>33200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>17600</v>
       </c>
       <c r="Q59" s="3">
         <v>17600</v>
       </c>
       <c r="R59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="S59" s="3">
         <v>16200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E60" s="3">
         <v>43400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>37800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>230500</v>
+      </c>
+      <c r="E61" s="3">
         <v>229800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>82300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>81900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>61500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3538,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -3547,7 +3690,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3562,72 +3705,78 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E62" s="3">
         <v>15400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>4500</v>
       </c>
       <c r="N62" s="3">
         <v>4500</v>
       </c>
       <c r="O62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P62" s="3">
         <v>4400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>28900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>283700</v>
+      </c>
+      <c r="E66" s="3">
         <v>288700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>137300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>134000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>111300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>93500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>55300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>50700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4021,7 +4189,7 @@
         <v>36100</v>
       </c>
       <c r="H70" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="I70" s="3">
         <v>37400</v>
@@ -4033,7 +4201,7 @@
         <v>37400</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>37400</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1059000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-988700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-922500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-866400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-808000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-757000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-700600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-664500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-616100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-586700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-563800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-526300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-497200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-488100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-451900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-414300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-386300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-353700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-318700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E76" s="3">
         <v>148800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>208300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>257200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>304200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>293700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>256300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>288300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>330900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>233000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>171800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>205600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>231100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>235400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>268200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>150000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>174500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>201700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>233800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-66200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-56100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-58500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-50900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-56400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-48500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-32300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-37500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-29100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-34100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-37600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-28000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-32500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-35000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4633,13 +4832,13 @@
         <v>1300</v>
       </c>
       <c r="F83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -4660,7 +4859,7 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>400</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-75600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-53100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-42500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-52400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-58300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-35500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-41900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-35800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-32900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-30300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-38900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-33200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-21000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-25200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,13 +5277,14 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
@@ -5072,10 +5293,10 @@
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -5084,40 +5305,43 @@
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>17700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>19500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-42000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>86300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-57100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-72500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>33700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-67900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>37200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>17100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>41700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>17300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>32800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>147400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>78500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>123500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>161600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>81700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>153000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="E102" s="3">
         <v>74800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-62100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>39800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>46000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>48600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-98400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>57600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-62400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-96400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>131300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>24100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-23500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>EPZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,142 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9700</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>12000</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -804,39 +808,42 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>10000</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -877,28 +884,31 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E10" s="3">
         <v>4700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E12" s="3">
         <v>32700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>38300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>40900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>25600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>28700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>27300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>24700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>28400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E17" s="3">
         <v>72000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>60000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>37400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>38100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>38500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>33000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>36000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-64400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-62100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-54300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-57500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-51300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-57500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-50700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-31000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-38600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-30300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-37400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-38100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-28500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-33000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-35500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,58 +1413,59 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1100</v>
       </c>
       <c r="O20" s="3">
         <v>1100</v>
       </c>
       <c r="P20" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="Q20" s="3">
         <v>900</v>
       </c>
       <c r="R20" s="3">
+        <v>900</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>400</v>
       </c>
       <c r="T20" s="3">
         <v>400</v>
@@ -1440,72 +1474,78 @@
         <v>400</v>
       </c>
       <c r="V20" s="3">
+        <v>400</v>
+      </c>
+      <c r="W20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-68500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-64300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-54400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-57300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-50100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-55900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-48300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-29100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-22600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-37300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-28900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-36100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-37200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-27600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-32100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-34600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-23900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,7 +1556,7 @@
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1525,10 +1565,10 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1542,8 +1582,8 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1566,81 +1606,87 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-70300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-66100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-58500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-50900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-56300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-48500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-29300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-22900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-37500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-29100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-36500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-37600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-28000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-32500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-35000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
@@ -1648,11 +1694,11 @@
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
@@ -1660,11 +1706,11 @@
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>5</v>
@@ -1672,11 +1718,11 @@
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>-300</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>5</v>
@@ -1684,14 +1730,17 @@
       <c r="T24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-70300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-66200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-58500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-50900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-56400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-36100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-48500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-29300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-22900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-37500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-29100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-36200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-37600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-28000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-32500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-35000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-70300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-66200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-56100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-58500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-50900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-56400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-36100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-48500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-32300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-37500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-29100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-36200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-37600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-28000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-32500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-35000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,58 +2191,61 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>5400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1100</v>
       </c>
       <c r="O32" s="3">
         <v>-1100</v>
       </c>
       <c r="P32" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="Q32" s="3">
         <v>-900</v>
       </c>
       <c r="R32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-400</v>
       </c>
       <c r="T32" s="3">
         <v>-400</v>
@@ -2184,72 +2254,78 @@
         <v>-400</v>
       </c>
       <c r="V32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-70300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-66200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-56100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-58500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-50900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-56400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-48500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-32300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-37500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-29100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-36200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-37600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-28000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-32500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-35000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-70300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-66200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-56100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-58500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-50900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-56400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-48500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-32300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-37500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-29100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-36200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-37600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-28000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-32500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-35000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,180 +2573,187 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E41" s="3">
         <v>73700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>168200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>93400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>117200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>179300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>139500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>93500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>45900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>144300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>86700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>66300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>130300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>226700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>219800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>88500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>64400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>77900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>163800</v>
+      </c>
+      <c r="E42" s="3">
         <v>225200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>205400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>186500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>204900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>197200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>241600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>199400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>285000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>226800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>153600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>114500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>147700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>117600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>49800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>87400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>104500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>146800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>164300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E43" s="3">
         <v>9800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12000</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
@@ -2671,30 +2764,33 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
         <v>14800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1700</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -2711,8 +2807,8 @@
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2735,132 +2831,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E45" s="3">
         <v>16900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>272500</v>
+      </c>
+      <c r="E46" s="3">
         <v>340400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>405100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>311200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>354700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>402400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>399200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>320900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>358400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>399300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>272500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>236100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>256900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>285800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>317300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>201700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>220000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>248700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>275000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,90 +3026,96 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E48" s="3">
         <v>18300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E49" s="3">
         <v>46000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>47000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>48000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>49100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>24700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3021,8 +3132,8 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,13 +3286,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2000</v>
+        <v>18100</v>
       </c>
       <c r="E52" s="3">
         <v>2000</v>
@@ -3184,55 +3304,58 @@
         <v>2000</v>
       </c>
       <c r="G52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2000</v>
       </c>
       <c r="I52" s="3">
         <v>2000</v>
       </c>
       <c r="J52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>900</v>
       </c>
       <c r="M52" s="3">
         <v>900</v>
       </c>
       <c r="N52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O52" s="3">
         <v>1000</v>
       </c>
       <c r="P52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>700</v>
       </c>
       <c r="S52" s="3">
         <v>700</v>
       </c>
       <c r="T52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="U52" s="3">
         <v>600</v>
       </c>
       <c r="V52" s="3">
+        <v>600</v>
+      </c>
+      <c r="W52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>352500</v>
+      </c>
+      <c r="E54" s="3">
         <v>406700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>473600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>381800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>427400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>451600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>424600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>334200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>371400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>412700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>275500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>203100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>239300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>260200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>289400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>320500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>205300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>223900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>252400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3494,32 +3628,32 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>600</v>
       </c>
       <c r="U58" s="3">
         <v>600</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,147 +3673,153 @@
         <v>33600</v>
       </c>
       <c r="E59" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F59" s="3">
         <v>33200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>17600</v>
       </c>
       <c r="R59" s="3">
         <v>17600</v>
       </c>
       <c r="S59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="T59" s="3">
         <v>16200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E60" s="3">
         <v>39000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>37800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>20500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>231200</v>
+      </c>
+      <c r="E61" s="3">
         <v>230500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>229800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>82300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>81900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>61500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3684,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3693,7 +3836,7 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3708,75 +3851,81 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E62" s="3">
         <v>14200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>4500</v>
       </c>
       <c r="O62" s="3">
         <v>4500</v>
       </c>
       <c r="P62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>28900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>284900</v>
+      </c>
+      <c r="E66" s="3">
         <v>283700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>288700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>137300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>134000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>111300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>40500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>55300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>50700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4192,7 +4360,7 @@
         <v>36100</v>
       </c>
       <c r="I70" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="J70" s="3">
         <v>37400</v>
@@ -4204,7 +4372,7 @@
         <v>37400</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>37400</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1123400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1059000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-988700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-922500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-866400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-808000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-757000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-700600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-664500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-616100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-586700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-563800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-526300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-497200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-488100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-451900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-414300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-386300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-353700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-318700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E76" s="3">
         <v>86900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>148800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>208300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>257200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>304200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>293700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>256300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>288300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>330900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>233000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>171800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>205600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>231100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>235400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>268200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>150000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>174500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>201700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>233800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-70300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-66200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-56100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-58500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-50900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-56400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-48500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-32300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-37500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-29100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-36200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-37600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-28000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-32500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-35000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4835,13 +5034,13 @@
         <v>1300</v>
       </c>
       <c r="G83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4862,7 +5061,7 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>400</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-75600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-53100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-42500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-52400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-58300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-35500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-38200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-41900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-31600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-35800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-32900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-30400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-38900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-33200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-21000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-25200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5287,7 +5508,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
@@ -5296,10 +5517,10 @@
         <v>-300</v>
       </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -5308,40 +5529,43 @@
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>17700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-32300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>19500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-42000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>86300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-72500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>33700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-67900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>37200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>17100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>41700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>17300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>32800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>147400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>78500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>123500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>161600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>81700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>153000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-94500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>74800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-62100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>39800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>46000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>48600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-98400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>57600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-62400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-96400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>131300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>24100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-23500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>EPZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,149 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E8" s="3">
         <v>13000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9700</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>12000</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -811,42 +815,45 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>10000</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
@@ -887,31 +894,34 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E10" s="3">
         <v>10500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E12" s="3">
         <v>34900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>38300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>40900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>26900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>31300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>25600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>28900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>28700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>27300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>24700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>28400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E17" s="3">
         <v>71200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>60000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>42300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>35000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>37400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>38100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>38500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>33000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>36000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-58200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-64400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-62100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-54300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-57500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-51300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-57500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-38000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-50700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-31000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-24300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-38600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-35000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-37400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-38100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-28500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-33000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-35500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,61 +1447,62 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1100</v>
       </c>
       <c r="P20" s="3">
         <v>1100</v>
       </c>
       <c r="Q20" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="R20" s="3">
         <v>900</v>
       </c>
       <c r="S20" s="3">
+        <v>900</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>400</v>
       </c>
       <c r="U20" s="3">
         <v>400</v>
@@ -1477,80 +1511,86 @@
         <v>400</v>
       </c>
       <c r="W20" s="3">
+        <v>400</v>
+      </c>
+      <c r="X20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-62600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-68500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-64300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-54400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-57300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-50100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-55900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-35900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-48300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-29100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-22600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-37300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-33700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-36100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-37200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-27600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-32100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-34600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-23900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
@@ -1559,7 +1599,7 @@
         <v>500</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1568,10 +1608,10 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1585,8 +1625,8 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-64400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-70300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-66100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-56100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-58500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-50900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-56300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-48500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-29300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-22900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-37500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-34100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-36500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-37600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-28000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-32500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-35000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1685,11 +1731,11 @@
       <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
@@ -1697,11 +1743,11 @@
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
@@ -1709,11 +1755,11 @@
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
@@ -1721,11 +1767,11 @@
       <c r="Q24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>-300</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>5</v>
@@ -1733,14 +1779,17 @@
       <c r="U24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-64400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-70300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-66200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-56100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-58500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-50900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-56400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-48500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-29300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-22900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-37500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-34100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-36200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-37600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-28000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-32500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-35000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-64400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-70300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-66200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-56100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-58500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-50900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-56400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-36100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-48500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-32300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-37500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-34100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-36200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-37600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-28000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-32500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-35000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,61 +2261,64 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1100</v>
       </c>
       <c r="P32" s="3">
         <v>-1100</v>
       </c>
       <c r="Q32" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="R32" s="3">
         <v>-900</v>
       </c>
       <c r="S32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-400</v>
       </c>
       <c r="U32" s="3">
         <v>-400</v>
@@ -2257,75 +2327,81 @@
         <v>-400</v>
       </c>
       <c r="W32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-64400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-70300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-66200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-56100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-58500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-50900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-56400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-36100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-48500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-32300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-37500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-34100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-36200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-37600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-28000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-32500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-35000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-64400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-70300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-66200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-56100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-58500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-50900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-56400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-36100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-48500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-32300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-37500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-34100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-36200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-37600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-28000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-32500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-35000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,189 +2660,196 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>124500</v>
+      </c>
+      <c r="E41" s="3">
         <v>80200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>73700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>168200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>93400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>117200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>179300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>139500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>93500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>45900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>144300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>86700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>66300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>130300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>226700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>219800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>88500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>64400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>77900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E42" s="3">
         <v>163800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>225200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>205400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>186500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>204900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>197200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>241600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>199400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>285000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>226800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>153600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>114500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>147700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>117600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>49800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>87400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>104500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>146800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>164300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E43" s="3">
         <v>7100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12000</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
@@ -2767,33 +2860,36 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1700</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>5</v>
@@ -2810,8 +2906,8 @@
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2834,138 +2930,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E45" s="3">
         <v>20300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>247600</v>
+      </c>
+      <c r="E46" s="3">
         <v>272500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>340400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>405100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>311200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>354700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>402400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>399200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>320900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>358400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>399300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>272500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>236100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>256900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>285800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>317300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>201700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>220000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>248700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>275000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,96 +3134,102 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E48" s="3">
         <v>17100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E49" s="3">
         <v>44900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>46000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>47000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>48000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>49100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>24700</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
@@ -3135,8 +3246,8 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,16 +3406,19 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E52" s="3">
         <v>18100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2000</v>
       </c>
       <c r="F52" s="3">
         <v>2000</v>
@@ -3307,55 +3427,58 @@
         <v>2000</v>
       </c>
       <c r="H52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I52" s="3">
         <v>1900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2000</v>
       </c>
       <c r="J52" s="3">
         <v>2000</v>
       </c>
       <c r="K52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>900</v>
       </c>
       <c r="N52" s="3">
         <v>900</v>
       </c>
       <c r="O52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P52" s="3">
         <v>1000</v>
       </c>
       <c r="Q52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>700</v>
       </c>
       <c r="T52" s="3">
         <v>700</v>
       </c>
       <c r="U52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="V52" s="3">
         <v>600</v>
       </c>
       <c r="W52" s="3">
+        <v>600</v>
+      </c>
+      <c r="X52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>332300</v>
+      </c>
+      <c r="E54" s="3">
         <v>352500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>406700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>473600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>381800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>427400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>451600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>424600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>334200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>371400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>412700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>275500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>203100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>239300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>260200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>289400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>320500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>205300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>223900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>252400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E57" s="3">
         <v>7300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3631,32 +3765,32 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>600</v>
       </c>
       <c r="V58" s="3">
         <v>600</v>
@@ -3664,165 +3798,174 @@
       <c r="W58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33600</v>
+        <v>34900</v>
       </c>
       <c r="E59" s="3">
         <v>33600</v>
       </c>
       <c r="F59" s="3">
+        <v>33600</v>
+      </c>
+      <c r="G59" s="3">
         <v>33200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>17600</v>
       </c>
       <c r="S59" s="3">
         <v>17600</v>
       </c>
       <c r="T59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="U59" s="3">
         <v>16200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E60" s="3">
         <v>40900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>39000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>37800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>26200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>20500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>231800</v>
+      </c>
+      <c r="E61" s="3">
         <v>231200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>230500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>229800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>82300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>81900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>61500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3830,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -3839,7 +3982,7 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3854,78 +3997,84 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E62" s="3">
         <v>12800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>4500</v>
       </c>
       <c r="P62" s="3">
         <v>4500</v>
       </c>
       <c r="Q62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R62" s="3">
         <v>4400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>28900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>29000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>316900</v>
+      </c>
+      <c r="E66" s="3">
         <v>284900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>283700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>288700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>137300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>134000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>111300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>93500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>55300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>50700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4363,7 +4531,7 @@
         <v>36100</v>
       </c>
       <c r="J70" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="K70" s="3">
         <v>37400</v>
@@ -4375,7 +4543,7 @@
         <v>37400</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>37400</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1189200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1123400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1059000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-988700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-922500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-866400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-808000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-757000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-700600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-664500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-616100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-586700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-563800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-526300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-497200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-488100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-451900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-414300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-386300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-353700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-318700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E76" s="3">
         <v>31500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>86900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>148800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>208300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>257200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>304200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>293700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>256300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>288300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>330900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>233000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>171800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>205600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>231100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>235400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>268200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>150000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>174500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>201700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>233800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-64400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-70300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-66200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-56100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-58500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-50900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-56400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-36100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-48500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-32300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-37500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-34100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-36200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-37600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-28000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-32500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-35000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5037,13 +5236,13 @@
         <v>1300</v>
       </c>
       <c r="H83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -5064,7 +5263,7 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>400</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-56700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-75600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-53100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-52400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-58300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-35500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-41900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-31600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-35800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-30300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-30400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-38900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-17900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-33200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-21000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-25200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,19 +5719,20 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
@@ -5520,10 +5741,10 @@
         <v>-300</v>
       </c>
       <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -5532,40 +5753,43 @@
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E94" s="3">
         <v>61000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>17700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-32300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>19500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-42000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>86300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-72500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>33700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-67900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>37200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>17100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>41700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>17300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>32800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>147400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>78500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>123500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>161600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>81700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>153000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E102" s="3">
         <v>6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-94500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>74800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-62100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>39800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>48600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-98400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>57600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-62400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-96400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>131300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>24100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-23500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,155 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E8" s="3">
         <v>5200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9700</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>12000</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -818,45 +821,48 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>10000</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
@@ -897,34 +903,37 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E12" s="3">
         <v>34500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>33700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>38300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>40900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>26900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>31300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>25600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>28900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>28700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>27300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>24700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>28400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E17" s="3">
         <v>69300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>71200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>60000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>52700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>56600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>42300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>35000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>37400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>38100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>38500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>33000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>36000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-64100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-58200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-64400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-62100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-54300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-57500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-51300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-57500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-38000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-50700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-31000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-24300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-30300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-35000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-37400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-38100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-28500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-33000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-35500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,64 +1480,65 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1100</v>
       </c>
       <c r="Q20" s="3">
         <v>1100</v>
       </c>
       <c r="R20" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="S20" s="3">
         <v>900</v>
       </c>
       <c r="T20" s="3">
+        <v>900</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>400</v>
       </c>
       <c r="V20" s="3">
         <v>400</v>
@@ -1514,78 +1547,84 @@
         <v>400</v>
       </c>
       <c r="X20" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-64100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-62600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-68500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-64300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-54400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-57300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-50100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-55900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-35900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-48300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-29100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-22600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-37300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-28900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-33700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-36100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-37200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-27600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-32100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-34600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-23900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1632,7 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
@@ -1602,7 +1641,7 @@
         <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1611,10 +1650,10 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1628,8 +1667,8 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1652,81 +1691,87 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-65800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-64400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-70300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-66100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-56100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-58500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-50900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-56300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-48500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-29100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-34100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-36500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-37600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-28000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-32500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-35000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>5</v>
@@ -1734,11 +1779,11 @@
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
@@ -1746,11 +1791,11 @@
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>5</v>
@@ -1758,11 +1803,11 @@
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>5</v>
@@ -1770,11 +1815,11 @@
       <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>-300</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>5</v>
@@ -1782,14 +1827,17 @@
       <c r="V24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-65800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-64400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-70300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-66200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-58500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-50900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-56400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-48500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-29300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-22900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-29100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-34100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-36200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-37600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-28000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-32500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-35000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-65800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-64400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-70300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-66200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-56100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-58500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-50900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-56400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-36100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-48500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-32300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-29100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-34100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-36200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-37600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-28000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-32500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-35000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,64 +2330,67 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q32" s="3">
         <v>-1100</v>
       </c>
       <c r="R32" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="S32" s="3">
         <v>-900</v>
       </c>
       <c r="T32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-400</v>
       </c>
       <c r="V32" s="3">
         <v>-400</v>
@@ -2330,78 +2399,84 @@
         <v>-400</v>
       </c>
       <c r="X32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-65800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-64400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-70300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-66200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-56100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-58500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-50900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-56400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-36100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-48500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-32300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-29100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-34100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-36200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-37600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-28000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-32500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-35000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-65800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-64400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-70300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-66200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-56100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-58500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-50900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-56400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-36100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-48500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-32300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-29100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-34100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-36200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-37600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-28000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-32500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-35000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,198 +2746,205 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E41" s="3">
         <v>124500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>80200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>73700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>168200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>93400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>117200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>179300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>139500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>45900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>144300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>86700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>66300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>130300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>226700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>219800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>88500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>64400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>77900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E42" s="3">
         <v>96800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>163800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>225200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>205400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>186500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>204900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>197200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>241600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>199400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>285000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>226800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>153600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>114500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>147700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>117600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>49800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>87400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>104500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>146800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>164300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12000</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
@@ -2863,36 +2955,39 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1700</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
@@ -2909,8 +3004,8 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2933,144 +3028,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E45" s="3">
         <v>21500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E46" s="3">
         <v>247600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>272500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>340400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>405100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>311200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>354700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>402400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>399200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>320900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>358400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>399300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>272500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>236100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>256900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>285800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>317300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>201700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>220000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>248700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>275000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,102 +3241,108 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E48" s="3">
         <v>22900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E49" s="3">
         <v>43900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>46000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>47000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>48000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>49100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>24700</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
@@ -3249,8 +3359,8 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3525,22 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E52" s="3">
         <v>17900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2000</v>
       </c>
       <c r="G52" s="3">
         <v>2000</v>
@@ -3430,55 +3549,58 @@
         <v>2000</v>
       </c>
       <c r="I52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J52" s="3">
         <v>1900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2000</v>
       </c>
       <c r="K52" s="3">
         <v>2000</v>
       </c>
       <c r="L52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>900</v>
       </c>
       <c r="O52" s="3">
         <v>900</v>
       </c>
       <c r="P52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q52" s="3">
         <v>1000</v>
       </c>
       <c r="R52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>700</v>
       </c>
       <c r="U52" s="3">
         <v>700</v>
       </c>
       <c r="V52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W52" s="3">
         <v>600</v>
       </c>
       <c r="X52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E54" s="3">
         <v>332300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>352500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>406700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>473600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>381800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>427400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>451600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>424600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>334200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>371400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>412700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>275500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>203100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>239300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>260200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>289400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>320500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>205300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>223900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>252400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E57" s="3">
         <v>9900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3768,32 +3901,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>600</v>
       </c>
       <c r="W58" s="3">
         <v>600</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,165 +3946,171 @@
         <v>34900</v>
       </c>
       <c r="E59" s="3">
-        <v>33600</v>
+        <v>34900</v>
       </c>
       <c r="F59" s="3">
         <v>33600</v>
       </c>
       <c r="G59" s="3">
+        <v>33600</v>
+      </c>
+      <c r="H59" s="3">
         <v>33200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>17600</v>
       </c>
       <c r="T59" s="3">
         <v>17600</v>
       </c>
       <c r="U59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="V59" s="3">
         <v>16200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>16000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E60" s="3">
         <v>44700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>37800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E61" s="3">
         <v>231800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>231200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>230500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>229800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>82300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>81900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>61500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3976,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -3985,7 +4127,7 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4000,81 +4142,87 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E62" s="3">
         <v>40300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>4500</v>
       </c>
       <c r="Q62" s="3">
         <v>4500</v>
       </c>
       <c r="R62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S62" s="3">
         <v>4400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>28900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>29000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>309700</v>
+      </c>
+      <c r="E66" s="3">
         <v>316900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>284900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>283700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>288700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>137300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>134000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>111300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>54000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>52400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>55300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>49400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>50700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4534,7 +4701,7 @@
         <v>36100</v>
       </c>
       <c r="K70" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="L70" s="3">
         <v>37400</v>
@@ -4546,7 +4713,7 @@
         <v>37400</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>37400</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1239800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1189200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1123400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1059000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-988700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-922500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-866400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-808000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-757000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-700600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-664500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-616100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-586700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-563800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-526300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-497200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-488100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-451900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-414300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-386300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-353700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-318700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-20700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>86900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>148800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>208300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>257200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>304200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>293700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>256300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>288300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>330900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>233000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>171800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>205600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>231100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>235400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>268200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>150000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>174500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>201700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>233800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-65800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-64400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-70300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-66200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-56100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-58500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-50900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-56400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-36100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-48500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-32300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-29100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-34100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-36200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-37600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-28000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-32500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-35000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5239,13 +5437,13 @@
         <v>1300</v>
       </c>
       <c r="I83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -5266,7 +5464,7 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>400</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-56700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-75600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-53100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-42500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-52400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-58300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-35500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-38200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-41900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-31600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-22600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-32900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-30300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-30400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-38900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-17900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-33200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-21000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-25200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,22 +5939,23 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
@@ -5744,10 +5964,10 @@
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -5756,40 +5976,43 @@
         <v>-200</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E94" s="3">
         <v>66600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>61000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>17700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-32300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>19500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>86300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-72500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>33700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-67900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>37200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>17100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>41700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>17300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>32800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E100" s="3">
         <v>20400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>147400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>78500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>123500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>161600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>81700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>153000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E102" s="3">
         <v>44400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-94500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>74800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-62100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>39800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>46000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>48600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-98400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>57600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-62400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-96400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>131300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>24100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-13500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-23500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPZM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,162 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E8" s="3">
         <v>11600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9700</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>12000</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -824,48 +828,51 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>10000</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="3">
         <v>3200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
@@ -906,37 +913,40 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E10" s="3">
         <v>8400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E12" s="3">
         <v>28900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>32700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>38300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>26600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>40900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>31300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>25600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>28900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>28700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>27300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>24700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>28400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E17" s="3">
         <v>62900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>69300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>71200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>57900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>60000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>56600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>38600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>42300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>35000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>37400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>38100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>38500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>33000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>36000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-51300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-64100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-58200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-64400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-62100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-54300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-57500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-51300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-57500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-38000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-50700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-31000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-38600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-30300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-35000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-37400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-38100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-28500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-33000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-35500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,67 +1514,68 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1100</v>
       </c>
       <c r="R20" s="3">
         <v>1100</v>
       </c>
       <c r="S20" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T20" s="3">
         <v>900</v>
       </c>
       <c r="U20" s="3">
+        <v>900</v>
+      </c>
+      <c r="V20" s="3">
         <v>500</v>
-      </c>
-      <c r="V20" s="3">
-        <v>400</v>
       </c>
       <c r="W20" s="3">
         <v>400</v>
@@ -1550,81 +1584,87 @@
         <v>400</v>
       </c>
       <c r="Y20" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-48900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-64100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-62600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-68500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-64300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-54400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-57300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-50100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-55900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-35900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-48300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-29100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-37300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-28900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-33700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-36100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-37200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-27600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-32100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-34600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-23900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1675,7 @@
         <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
@@ -1644,7 +1684,7 @@
         <v>500</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1653,10 +1693,10 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
@@ -1670,8 +1710,8 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1694,87 +1734,93 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-50600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-65800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-64400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-70300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-66100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-56100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-58500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-50900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-56300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-48500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-29300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-37500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-29100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-34100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-36500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-37600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-28000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-32500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
@@ -1782,11 +1828,11 @@
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
@@ -1794,11 +1840,11 @@
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
@@ -1806,11 +1852,11 @@
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>5</v>
@@ -1818,11 +1864,11 @@
       <c r="S24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>-300</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>5</v>
@@ -1830,14 +1876,17 @@
       <c r="W24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-50700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-65800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-64400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-70300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-66200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-56100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-58500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-50900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-56400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-36100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-48500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-29300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-37500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-29100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-34100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-36200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-37600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-28000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-32500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-50700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-65800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-64400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-70300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-66200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-56100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-58500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-50900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-56400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-36100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-48500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-32300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-37500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-29100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-34100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-36200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-37600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-28000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-32500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,67 +2400,70 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1100</v>
       </c>
       <c r="R32" s="3">
         <v>-1100</v>
       </c>
       <c r="S32" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="T32" s="3">
         <v>-900</v>
       </c>
       <c r="U32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V32" s="3">
         <v>-500</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-400</v>
       </c>
       <c r="W32" s="3">
         <v>-400</v>
@@ -2402,81 +2472,87 @@
         <v>-400</v>
       </c>
       <c r="Y32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-50700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-65800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-64400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-70300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-66200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-56100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-58500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-50900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-56400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-36100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-48500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-32300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-37500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-29100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-34100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-36200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-37600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-28000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-32500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-50700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-65800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-64400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-70300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-66200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-56100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-58500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-50900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-56400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-36100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-48500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-32300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-37500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-29100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-34100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-36200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-37600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-28000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-32500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,207 +2833,214 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E41" s="3">
         <v>98300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>124500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>80200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>73700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>168200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>93400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>117200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>179300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>139500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>93500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>45900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>144300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>86700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>66300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>67900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>130300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>226700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>219800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>88500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>64400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>77900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>122300</v>
+      </c>
+      <c r="E42" s="3">
         <v>78500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>96800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>163800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>225200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>205400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>186500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>204900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>197200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>241600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>199400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>285000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>226800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>153600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>114500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>147700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>117600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>49800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>87400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>104500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>146800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>164300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E43" s="3">
         <v>6600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12000</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
@@ -2958,39 +3051,42 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E44" s="3">
         <v>3200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1700</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
@@ -3007,8 +3103,8 @@
       <c r="Q44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3031,150 +3127,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E45" s="3">
         <v>19500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>228700</v>
+      </c>
+      <c r="E46" s="3">
         <v>206000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>247600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>272500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>340400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>405100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>311200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>354700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>402400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>399200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>320900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>358400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>399300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>272500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>236100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>256900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>285800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>317300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>201700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>220000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>248700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>275000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,108 +3349,114 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E48" s="3">
         <v>21600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E49" s="3">
         <v>42800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>43900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>47000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>48000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>49100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24700</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
@@ -3362,8 +3473,8 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,22 +3645,25 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E52" s="3">
         <v>18500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2000</v>
       </c>
       <c r="H52" s="3">
         <v>2000</v>
@@ -3552,55 +3672,58 @@
         <v>2000</v>
       </c>
       <c r="J52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2000</v>
       </c>
       <c r="L52" s="3">
         <v>2000</v>
       </c>
       <c r="M52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>900</v>
       </c>
       <c r="P52" s="3">
         <v>900</v>
       </c>
       <c r="Q52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="R52" s="3">
         <v>1000</v>
       </c>
       <c r="S52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>700</v>
       </c>
       <c r="V52" s="3">
         <v>700</v>
       </c>
       <c r="W52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="X52" s="3">
         <v>600</v>
       </c>
       <c r="Y52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>312200</v>
+      </c>
+      <c r="E54" s="3">
         <v>289000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>332300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>352500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>406700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>473600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>381800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>427400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>451600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>424600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>334200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>371400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>412700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>275500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>203100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>239300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>260200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>289400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>320500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>205300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>223900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>252400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E57" s="3">
         <v>10300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3904,32 +4038,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
-      </c>
-      <c r="W58" s="3">
-        <v>600</v>
       </c>
       <c r="X58" s="3">
         <v>600</v>
@@ -3937,183 +4071,192 @@
       <c r="Y58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34900</v>
+        <v>31100</v>
       </c>
       <c r="E59" s="3">
         <v>34900</v>
       </c>
       <c r="F59" s="3">
-        <v>33600</v>
+        <v>34900</v>
       </c>
       <c r="G59" s="3">
         <v>33600</v>
       </c>
       <c r="H59" s="3">
+        <v>33600</v>
+      </c>
+      <c r="I59" s="3">
         <v>33200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>17600</v>
       </c>
       <c r="U59" s="3">
         <v>17600</v>
       </c>
       <c r="V59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="W59" s="3">
         <v>16200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E60" s="3">
         <v>45200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>44700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>37800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>20500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>21600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>232500</v>
+      </c>
+      <c r="E61" s="3">
         <v>232100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>231800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>231200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>230500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>229800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>82300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>81900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>61500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4121,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -4130,7 +4273,7 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -4145,84 +4288,90 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E62" s="3">
         <v>32400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>40300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4600</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>4500</v>
       </c>
       <c r="R62" s="3">
         <v>4500</v>
       </c>
       <c r="S62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T62" s="3">
         <v>4400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>29100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>28900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>29000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>301100</v>
+      </c>
+      <c r="E66" s="3">
         <v>309700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>316900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>284900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>283700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>288700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>137300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>134000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>111300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>54000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>52400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>55300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>49400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>50700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4704,7 +4872,7 @@
         <v>36100</v>
       </c>
       <c r="L70" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="M70" s="3">
         <v>37400</v>
@@ -4716,7 +4884,7 @@
         <v>37400</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>37400</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1295300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1239800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1189200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1123400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1059000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-988700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-922500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-866400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-808000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-757000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-700600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-664500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-616100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-586700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-563800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-526300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-497200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-488100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-451900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-414300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-386300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-353700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-318700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-56800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-20700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>86900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>148800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>208300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>257200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>304200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>293700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>256300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>288300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>330900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>233000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>171800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>205600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>231100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>235400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>268200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>150000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>174500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>201700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>233800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-50700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-65800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-64400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-70300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-66200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-56100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-58500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-50900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-56400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-36100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-48500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-32300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-37500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-29100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-34100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-36200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-37600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-28000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-32500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5440,13 +5639,13 @@
         <v>1300</v>
       </c>
       <c r="J83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -5467,7 +5666,7 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>400</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-52000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-42600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-56700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-75600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-53100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-42500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-52400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-58300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-35500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-38200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-41900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-31600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-35800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-32900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-30300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-30400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-38900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-17900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-33200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-25200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,25 +6160,26 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
@@ -5967,10 +6188,10 @@
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
@@ -5979,40 +6200,43 @@
         <v>-200</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E94" s="3">
         <v>18200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>66600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>61000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>17700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-32300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>19500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>86300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-57100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-72500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>33700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-67900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>37200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>17100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>41700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>17300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>32800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E100" s="3">
         <v>7600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>147400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>78500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>123500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>161600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>81700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>153000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>44400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-94500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>74800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-62100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>46000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>48600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-98400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>57600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-62400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-96400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>131300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>24100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-23500</v>
       </c>
     </row>
